--- a/ReadScripts/m2_viz_charts_final/logistic_reg_results.xlsx
+++ b/ReadScripts/m2_viz_charts_final/logistic_reg_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacquelineskunda/Documents/GitHub/696/Milestone2/ReadScripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacquelineskunda/Documents/GitHub/696/Milestone2/ReadScripts/m2_viz_charts_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AC7DF5-C05E-F24C-B2ED-921C9F043B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5E0E344-C164-9A43-B1F4-3773D8CB7E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28040" windowHeight="16500" xr2:uid="{6405171C-70B8-4540-B98E-64EBC0836A3F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t xml:space="preserve">All Characters with featues </t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>N Jobs</t>
-  </si>
-  <si>
-    <t>Precison</t>
   </si>
   <si>
     <t>-</t>
@@ -773,24 +770,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D58239E-72FE-BC46-A040-857978883CF3}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="17"/>
     <col min="2" max="2" width="58.5" style="1" customWidth="1"/>
-    <col min="8" max="10" width="11.83203125" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="17"/>
+    <col min="8" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="19"/>
     </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
@@ -809,17 +806,14 @@
       <c r="G2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
@@ -836,19 +830,16 @@
         <v>500</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="8">
         <v>0.45100000000000001</v>
       </c>
-      <c r="I3" s="8">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="J3" s="10">
+      <c r="I3" s="10">
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -870,14 +861,11 @@
       <c r="H4" s="8">
         <v>0.71099999999999997</v>
       </c>
-      <c r="I4" s="8">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="I4" s="10">
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -899,14 +887,11 @@
       <c r="H5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="I5" s="10">
         <v>0.70040000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -928,14 +913,11 @@
       <c r="H6" s="8">
         <v>0.76600000000000001</v>
       </c>
-      <c r="I6" s="8">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="J6" s="10">
+      <c r="I6" s="10">
         <v>0.70040000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="47" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -957,14 +939,11 @@
       <c r="H7" s="8">
         <v>0.59699999999999998</v>
       </c>
-      <c r="I7" s="8">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="I7" s="10">
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
@@ -986,14 +965,11 @@
       <c r="H8" s="8">
         <v>0.93200000000000005</v>
       </c>
-      <c r="I8" s="8">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="I8" s="10">
         <v>0.754</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1015,16 +991,13 @@
       <c r="H9" s="7">
         <v>0.92</v>
       </c>
-      <c r="I9" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="I9" s="11">
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -1032,10 +1005,9 @@
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -1043,13 +1015,12 @@
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-    </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" s="16" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -1058,13 +1029,12 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B10:J11"/>
-    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B10:I11"/>
+    <mergeCell ref="B12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
